--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3399853.954412799</v>
+        <v>3397355.70309159</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.33491483371197</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152329</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247588</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444505</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>313.0589558399935</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773446</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
         <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861258</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673175</v>
+        <v>270.5718355797503</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203987</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U17" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839989</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W17" t="n">
-        <v>208.8910786437112</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699176</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580132</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249185</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207638</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043319</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679526</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289224</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H19" t="n">
-        <v>50.3522308281848</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I19" t="n">
-        <v>1.94963632370213</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900332</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V19" t="n">
-        <v>157.734859237692</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W19" t="n">
-        <v>192.120214250455</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659588</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773446</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
         <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
-        <v>214.3331515469815</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861258</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011845</v>
+        <v>154.2578743136155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770203987</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U20" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839989</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W20" t="n">
-        <v>254.838184631277</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699176</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2208,7 +2208,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580132</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249185</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207638</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043319</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679526</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289224</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H22" t="n">
-        <v>50.3522308281848</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I22" t="n">
-        <v>1.94963632370213</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900332</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V22" t="n">
-        <v>157.734859237692</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W22" t="n">
-        <v>192.120214250455</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659588</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773446</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
         <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861258</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011845</v>
+        <v>154.2578743136163</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203985</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U23" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839989</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W23" t="n">
-        <v>254.838184631277</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X23" t="n">
-        <v>229.3812106047654</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699176</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580132</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249185</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207638</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043319</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679526</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289224</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H25" t="n">
-        <v>50.3522308281848</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702116</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900332</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V25" t="n">
-        <v>157.734859237692</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W25" t="n">
-        <v>192.120214250455</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659588</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959372</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034641</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531395</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E26" t="n">
         <v>334.5027226047184</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>363.49407818591</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197771</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063245</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T26" t="n">
         <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913586</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025915</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498696</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>316.9631240257407</v>
+        <v>217.6975836563607</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143939</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310844</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506689</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902576</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538784</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G28" t="n">
-        <v>118.5981607914848</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677737</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I28" t="n">
-        <v>48.9247729422947</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250394</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638985</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.1213018086258</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380694</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562846</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690476</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214937</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845514</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959372</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
-        <v>64.99386706673705</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531395</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047184</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.448398274168</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.49407818591</v>
+        <v>241.5778990625407</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063244</v>
+        <v>61.76011432063255</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720768</v>
+        <v>156.4903226720769</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025915</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498696</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109256</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885102</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4043327143939</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310844</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506689</v>
+        <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902576</v>
+        <v>99.00631517902588</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538784</v>
+        <v>97.99340055538795</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914848</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677737</v>
+        <v>97.32736744677749</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9247729422947</v>
+        <v>48.92477294229482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250394</v>
+        <v>41.50450520250405</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638985</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086258</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380694</v>
+        <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562846</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690476</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214937</v>
+        <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845514</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D32" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H32" t="n">
         <v>196.9230441592154</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T32" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U32" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V32" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W32" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X32" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y32" t="n">
         <v>288.5532184279485</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G34" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V34" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W34" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3278,10 +3278,10 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253495</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,7 +3487,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3515,7 +3515,7 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253491</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592155</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925785</v>
       </c>
       <c r="E41" t="n">
         <v>284.2456498441568</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592151</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3867,7 +3867,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353746</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429026</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232655</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262036</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941465</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163375</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767877</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445837</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.04846113283</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.358762105091</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5148,13 +5148,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
         <v>1525.370990471662</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052933</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254596</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611973</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268775</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770405</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337109</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105844</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179561</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.54794583286</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882916</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874596</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822734</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941465</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163375</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.383608767877</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2677.383608767877</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.162441252733</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052935</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254599</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611975</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268777</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770407</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.155714499833</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
@@ -5452,7 +5452,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107745</v>
@@ -5470,7 +5470,7 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832861</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542912</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164254</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827666</v>
+        <v>857.6738109135067</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549125</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616627</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5543,22 +5543,22 @@
         <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.169431697768</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158665</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095328</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433794</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927972</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721576</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360008</v>
+        <v>191.6887743360011</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724732</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208456</v>
+        <v>68.48144605208466</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148975</v>
+        <v>129.6354881860084</v>
       </c>
       <c r="K19" t="n">
-        <v>363.5632367278424</v>
+        <v>321.4050986989533</v>
       </c>
       <c r="L19" t="n">
-        <v>570.5736988665831</v>
+        <v>570.573698866585</v>
       </c>
       <c r="M19" t="n">
-        <v>831.4649364110554</v>
+        <v>738.0061801657828</v>
       </c>
       <c r="N19" t="n">
-        <v>1096.232529686177</v>
+        <v>1002.773773440905</v>
       </c>
       <c r="O19" t="n">
-        <v>1327.609635149642</v>
+        <v>1234.150878904369</v>
       </c>
       <c r="P19" t="n">
-        <v>1426.5606379024</v>
+        <v>1426.560637902402</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.940161506216</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608143</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712666</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960594</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597956</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.411364778019</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C20" t="n">
-        <v>1411.015066994996</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827666</v>
+        <v>857.6738109135058</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549125</v>
+        <v>542.0442536856517</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616627</v>
+        <v>222.3281510924011</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479583</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.647713290081</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y20" t="n">
-        <v>1975.864728876023</v>
+        <v>1975.86472887602</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5856,25 +5856,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095328</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433794</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927972</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721576</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360008</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724732</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208456</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148975</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278424</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954742</v>
+        <v>612.7318368954739</v>
       </c>
       <c r="M22" t="n">
-        <v>873.6230744399465</v>
+        <v>873.6230744399461</v>
       </c>
       <c r="N22" t="n">
-        <v>1138.390667715069</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O22" t="n">
-        <v>1276.309016933258</v>
+        <v>1327.609635149643</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.718775931291</v>
+        <v>1520.019394147676</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608143</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712666</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960594</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597956</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.411364778019</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827671</v>
+        <v>857.6738109135058</v>
       </c>
       <c r="F23" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856517</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616627</v>
+        <v>222.3281510924019</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810539</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.55555606017</v>
@@ -6020,19 +6020,19 @@
         <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479583</v>
       </c>
       <c r="V23" t="n">
         <v>2806.169431697766</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.86472887602</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6054,22 +6054,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
         <v>765.1517452158134</v>
@@ -6081,19 +6081,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095327</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433793</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927971</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721576</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360007</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724732</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208452</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148975</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278425</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954743</v>
+        <v>612.7318368954739</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399468</v>
+        <v>873.6230744399461</v>
       </c>
       <c r="N25" t="n">
-        <v>1044.931911469794</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O25" t="n">
-        <v>1276.309016933259</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.718775931292</v>
+        <v>1431.97656300433</v>
       </c>
       <c r="Q25" t="n">
-        <v>1532.940161506215</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608143</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712665</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960593</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597955</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780189</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.651062055425</v>
+        <v>1766.0533664538</v>
       </c>
       <c r="C26" t="n">
-        <v>1331.595259728694</v>
+        <v>1444.997564127068</v>
       </c>
       <c r="D26" t="n">
-        <v>1021.236275735623</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>683.3547377510592</v>
+        <v>796.7570421494341</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510592</v>
+        <v>433.6778519735067</v>
       </c>
       <c r="G26" t="n">
-        <v>316.189002209736</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218339</v>
@@ -6242,7 +6242,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052367</v>
@@ -6266,10 +6266,10 @@
         <v>2311.508959249039</v>
       </c>
       <c r="X26" t="n">
-        <v>2311.508959249039</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>1991.344187505867</v>
+        <v>1766.0533664538</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218339</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460458</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318191</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331636</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644507</v>
+        <v>433.0209060644511</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802206</v>
+        <v>334.0376731802209</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686198</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9310790001578</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719869</v>
+        <v>158.5881198719868</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403318</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816958</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274111</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972843</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886125</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312652</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458034</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829243</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269749</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452956</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192279</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600073</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176792</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892455</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626053</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1510.64793490155</v>
+        <v>1305.024172789066</v>
       </c>
       <c r="C29" t="n">
-        <v>1444.997564127068</v>
+        <v>983.9683704623346</v>
       </c>
       <c r="D29" t="n">
-        <v>1134.638580133998</v>
+        <v>673.6093864692641</v>
       </c>
       <c r="E29" t="n">
-        <v>796.757042149434</v>
+        <v>673.6093864692641</v>
       </c>
       <c r="F29" t="n">
-        <v>433.6778519735067</v>
+        <v>310.5301962933357</v>
       </c>
       <c r="G29" t="n">
         <v>66.51211643218339</v>
@@ -6491,22 +6491,22 @@
         <v>3263.221867749945</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.150834747848</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.150834747848</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>2821.994662017957</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W29" t="n">
-        <v>2517.132721361523</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.573677714123</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>1849.341060351992</v>
+        <v>1643.717298239508</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6540,52 +6540,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460458</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318191</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331636</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644507</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802206</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686198</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001578</v>
+        <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719869</v>
+        <v>147.6909272985882</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403323</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816962</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546245</v>
+        <v>1541.616814972846</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459526</v>
+        <v>1887.899784886127</v>
       </c>
       <c r="P31" t="n">
-        <v>2178.357848886053</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458034</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829243</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269749</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452956</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192279</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600073</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176792</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892455</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626053</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218339</v>
@@ -6789,7 +6789,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G34" t="n">
         <v>114.0578686404821</v>
@@ -6853,55 +6853,55 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155312</v>
       </c>
       <c r="K34" t="n">
-        <v>273.3535972631171</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L34" t="n">
-        <v>525.7713142112982</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M34" t="n">
-        <v>789.9116685363199</v>
+        <v>694.5227723305806</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.104631555369</v>
+        <v>962.5394823862521</v>
       </c>
       <c r="O34" t="n">
-        <v>1272.730853799383</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552141</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U34" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,13 +6935,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6965,22 +6965,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919198</v>
@@ -7090,55 +7090,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090253</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572066</v>
+        <v>409.2396941488525</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364079987</v>
+        <v>673.3800484738742</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307335</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,19 +7202,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7245,7 +7245,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7327,22 +7327,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>155.218995958825</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832014</v>
+        <v>350.2377232523193</v>
       </c>
       <c r="L40" t="n">
-        <v>430.3824180055586</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M40" t="n">
-        <v>694.5227723305802</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862516</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O40" t="n">
         <v>1176.022980773559</v>
@@ -7351,10 +7351,10 @@
         <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
@@ -7363,16 +7363,16 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
         <v>485.2364260734884</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464964</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495724</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7482,37 +7482,37 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
         <v>2435.471302619336</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
         <v>231.3077836159867</v>
@@ -7561,37 +7561,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>155.2189959588247</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>350.237723252319</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746762</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996979</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295454</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.022980773559</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
         <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219653</v>
@@ -7600,19 +7600,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7631,64 +7631,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7719,10 +7719,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159867</v>
@@ -7798,37 +7798,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K46" t="n">
-        <v>350.2377232523189</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>505.9475671746761</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996978</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.104631555369</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799383</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577965</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
@@ -7837,19 +7837,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -9103,7 +9103,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775055</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899678</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837875</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706815</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.33569315209354</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.423790211176</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796448</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.697008219882955</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756734</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>45.94710598756578</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>45.94710598756548</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.94710598756908</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756827</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>45.94710598756764</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.448398274168</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109256</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.84716716276949</v>
+        <v>121.1127075321495</v>
       </c>
     </row>
     <row r="27">
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>252.8513772367271</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233694</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197771</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913586</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.748762416538412e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.907985046680551e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.008970684779342e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633472.8946764469</v>
+        <v>633472.8946764468</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633472.8946764469</v>
+        <v>633472.8946764467</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606779.1591196022</v>
+        <v>606779.1591196021</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491125</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="D2" t="n">
-        <v>798797.8900973065</v>
+        <v>798797.8900973068</v>
       </c>
       <c r="E2" t="n">
-        <v>745417.7346425967</v>
+        <v>745417.7346425964</v>
       </c>
       <c r="F2" t="n">
-        <v>745417.7346425964</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="G2" t="n">
-        <v>796949.7707219812</v>
+        <v>796949.7707219806</v>
       </c>
       <c r="H2" t="n">
-        <v>796949.7707219812</v>
+        <v>796949.7707219804</v>
       </c>
       <c r="I2" t="n">
-        <v>796949.7707219808</v>
+        <v>796949.7707219807</v>
       </c>
       <c r="J2" t="n">
         <v>745909.4057804155</v>
       </c>
       <c r="K2" t="n">
-        <v>745909.4057804155</v>
+        <v>745909.4057804154</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="N2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="P2" t="n">
         <v>800515.7256176751</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800515.7256176758</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971249564</v>
+        <v>9496.99497125067</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265977</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403472</v>
+        <v>37942.11797403463</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.77618248407</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586374</v>
+        <v>463750.8212586369</v>
       </c>
       <c r="E4" t="n">
+        <v>61875.22120367241</v>
+      </c>
+      <c r="F4" t="n">
         <v>61875.22120367244</v>
       </c>
-      <c r="F4" t="n">
-        <v>61875.22120367243</v>
-      </c>
       <c r="G4" t="n">
-        <v>91701.70120662294</v>
+        <v>91701.70120662289</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662294</v>
+        <v>91701.70120662288</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662283</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="J4" t="n">
-        <v>62159.64863317463</v>
+        <v>62159.64863317458</v>
       </c>
       <c r="K4" t="n">
-        <v>62159.64863317461</v>
+        <v>62159.64863317457</v>
       </c>
       <c r="L4" t="n">
+        <v>93774.13782657709</v>
+      </c>
+      <c r="M4" t="n">
+        <v>93774.137826577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657703</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.13782657708</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657709</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
         <v>93774.13782657706</v>
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.3458032835</v>
+        <v>33869.34580328353</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673065</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="J5" t="n">
         <v>78293.53545634219</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.53545634217</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624984</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297550.8703173809</v>
+        <v>297546.456739513</v>
       </c>
       <c r="C6" t="n">
-        <v>297550.8703173813</v>
+        <v>297546.4567395133</v>
       </c>
       <c r="D6" t="n">
-        <v>291680.7280641359</v>
+        <v>291676.3233576732</v>
       </c>
       <c r="E6" t="n">
-        <v>-547152.0011488341</v>
+        <v>-547293.2780487696</v>
       </c>
       <c r="F6" t="n">
-        <v>605287.020117142</v>
+        <v>605145.7432172062</v>
       </c>
       <c r="G6" t="n">
-        <v>585063.2633245927</v>
+        <v>585054.119850501</v>
       </c>
       <c r="H6" t="n">
-        <v>623005.3812986275</v>
+        <v>622996.2378245353</v>
       </c>
       <c r="I6" t="n">
-        <v>623005.3812986274</v>
+        <v>622996.2378245357</v>
       </c>
       <c r="J6" t="n">
-        <v>605456.2216908988</v>
+        <v>605316.2054861878</v>
       </c>
       <c r="K6" t="n">
-        <v>605456.2216908988</v>
+        <v>605316.2054861877</v>
       </c>
       <c r="L6" t="n">
-        <v>546075.2143023643</v>
+        <v>546075.214302364</v>
       </c>
       <c r="M6" t="n">
-        <v>417034.4221927751</v>
+        <v>417034.4221927758</v>
       </c>
       <c r="N6" t="n">
+        <v>624222.9904848486</v>
+      </c>
+      <c r="O6" t="n">
+        <v>624222.9904848493</v>
+      </c>
+      <c r="P6" t="n">
         <v>624222.9904848482</v>
-      </c>
-      <c r="O6" t="n">
-        <v>624222.9904848479</v>
-      </c>
-      <c r="P6" t="n">
-        <v>624222.9904848489</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J2" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K2" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135349</v>
+        <v>11.08925703135478</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
@@ -26826,10 +26826,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135349</v>
+        <v>11.08925703135478</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561944</v>
+        <v>1078.687443561943</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305517</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052752</v>
+        <v>208.757221905275</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826065</v>
+        <v>177.2622388826061</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586407</v>
+        <v>214.4191170586401</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193327</v>
+        <v>228.7313680193319</v>
       </c>
       <c r="M8" t="n">
-        <v>222.518387986241</v>
+        <v>222.5183879862401</v>
       </c>
       <c r="N8" t="n">
-        <v>221.458555635799</v>
+        <v>221.4585556357981</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176005</v>
+        <v>222.5869951175996</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178628</v>
+        <v>224.8223464178621</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000994</v>
+        <v>217.4915592000989</v>
       </c>
       <c r="R8" t="n">
-        <v>212.785193926712</v>
+        <v>212.7851939267117</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823178</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27950,34 +27950,34 @@
         <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588561</v>
+        <v>98.70114728588551</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297574</v>
+        <v>124.5841013297571</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373463</v>
+        <v>133.9898052373459</v>
       </c>
       <c r="L9" t="n">
-        <v>133.375382899335</v>
+        <v>133.3753828993344</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399307</v>
+        <v>136.09038883993</v>
       </c>
       <c r="N9" t="n">
-        <v>125.13810969935</v>
+        <v>125.1381096993493</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352007</v>
+        <v>136.9211602352001</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121504</v>
+        <v>129.4196520121498</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214884</v>
+        <v>136.937040721488</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721164</v>
+        <v>144.1985650721162</v>
       </c>
       <c r="S9" t="n">
         <v>171.2401239007455</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
         <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.581632063448</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269174</v>
+        <v>126.6899679269171</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502423</v>
+        <v>131.911664650242</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297095</v>
+        <v>135.7911600297091</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978763</v>
+        <v>124.6254548978759</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465398</v>
+        <v>135.6300504465395</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697193</v>
+        <v>135.309455269719</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177115</v>
+        <v>149.8305238177113</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021355</v>
+        <v>176.3942526021354</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613598</v>
+        <v>51.81880627917737</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L19" t="n">
-        <v>51.81880627917519</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613598</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>51.81880627917732</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28943769526406</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.151933566445914e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613598</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613598</v>
+        <v>57.289437695266</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.81880627917423</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="R25" t="n">
-        <v>94.40278408613598</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613598</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.4276474675434</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="J31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="K31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="N31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="O31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="P31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="R31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="S31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.4276474675434</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>77.66073332242613</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415722</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242624</v>
       </c>
       <c r="M37" t="n">
-        <v>85.08100106221656</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810501</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810501</v>
+        <v>77.66073332242641</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>76.32843350415936</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810501</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>76.32843350415928</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810501</v>
+        <v>77.66073332242664</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>77.6607333224261</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810501</v>
+        <v>85.08100106221713</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810501</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423508</v>
+        <v>0.04457992776424027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154726</v>
+        <v>0.4565541852155258</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130675</v>
+        <v>1.718667665130875</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079751</v>
+        <v>3.783665644080191</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339823</v>
+        <v>5.670733986340483</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950654534</v>
+        <v>7.035046950655353</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241031749</v>
+        <v>7.82784524103266</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960791883</v>
+        <v>7.954507960792809</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304086269</v>
+        <v>7.511216304087144</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406715</v>
+        <v>6.410649337407461</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350045</v>
+        <v>4.814130674350605</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420135</v>
+        <v>2.80034388742046</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927508</v>
+        <v>1.015865103927626</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879392</v>
+        <v>0.1951486337879619</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138806</v>
+        <v>0.003566394221139221</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064712</v>
+        <v>0.0238523641806499</v>
       </c>
       <c r="H9" t="n">
-        <v>0.230363622481513</v>
+        <v>0.2303636224815398</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141143856</v>
+        <v>0.8212327141144812</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909297</v>
+        <v>2.253525336909559</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012654</v>
+        <v>3.851633737013102</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539191</v>
+        <v>5.178996880539795</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087648</v>
+        <v>6.043645082088353</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983305</v>
+        <v>6.203602383984028</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243703</v>
+        <v>5.675084209244364</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179888</v>
+        <v>4.554755402180418</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533131</v>
+        <v>3.044733364533486</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847547</v>
+        <v>1.48093889184772</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922828</v>
+        <v>0.4430472030923344</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614918726</v>
+        <v>0.09614176614919845</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00156923448556889</v>
+        <v>0.001569234485569073</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0199970208762112</v>
+        <v>0.01999702087621353</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994052</v>
+        <v>0.1777916946994259</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550773333</v>
+        <v>0.6013649550774034</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948132</v>
+        <v>1.413789375948296</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617992</v>
+        <v>2.323290243618262</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995982</v>
+        <v>2.973011630996328</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895543</v>
+        <v>3.134623917895908</v>
       </c>
       <c r="N10" t="n">
-        <v>3.06008956735694</v>
+        <v>3.060089567357296</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303017</v>
+        <v>2.826488005303346</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428306</v>
+        <v>2.418548779428588</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734376</v>
+        <v>1.674477811734571</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750340052</v>
+        <v>0.8991387750341099</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426987</v>
+        <v>0.3484935365427393</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0854418164710842</v>
+        <v>0.08544181647109415</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247885</v>
+        <v>0.001090746593248012</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.2811376003809</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099058</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764788</v>
+        <v>63.76098156952023</v>
       </c>
       <c r="K19" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L19" t="n">
-        <v>209.1014769078188</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701741</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>233.7142479428931</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.4540642462782</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>5.470631416088636</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764787</v>
       </c>
       <c r="K22" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701741</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N22" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>191.1302701359346</v>
       </c>
       <c r="P22" t="n">
         <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.34071785540623</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764789</v>
+        <v>106.3449593764787</v>
       </c>
       <c r="K25" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147797</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M25" t="n">
-        <v>263.5265025701742</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428933</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172053</v>
+        <v>157.2399455263353</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.87008643931642</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
-        <v>5.470631416088651</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.0060640806096</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118629</v>
+        <v>242.4680417862071</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.053761635369</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N28" t="n">
         <v>392.2845936350834</v>
@@ -36768,7 +36768,7 @@
         <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126538</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
         <v>125.821886005437</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.0060640806096</v>
+        <v>81.9987988549543</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118629</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377414</v>
+        <v>367.1850196377413</v>
       </c>
       <c r="M31" t="n">
-        <v>395.0610268610272</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350834</v>
+        <v>392.2845936350833</v>
       </c>
       <c r="O31" t="n">
-        <v>349.7807776901831</v>
+        <v>349.780777690183</v>
       </c>
       <c r="P31" t="n">
-        <v>282.3847186126538</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
-        <v>114.8146207797791</v>
+        <v>125.8218860054369</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6268955184479</v>
+        <v>109.626895518448</v>
       </c>
       <c r="K34" t="n">
         <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>250.6999626455044</v>
+        <v>270.7239495511834</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882472</v>
+        <v>89.37971366429939</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554011</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>234.9434039510699</v>
       </c>
       <c r="M37" t="n">
-        <v>254.2047195462547</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37695,25 +37695,25 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266897</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>89.60290861276927</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>215.6398973609166</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
         <v>197.6352280591743</v>
@@ -37722,7 +37722,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266897</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.27060879450214</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
@@ -37953,13 +37953,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>177.6112411534959</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,22 +38169,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.9646265220931</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>258.1202303852954</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
@@ -38193,10 +38193,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057663</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
